--- a/results/TLS.xlsx
+++ b/results/TLS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7241,48 +7241,1450 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>293</v>
+        <v>105</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
+        <v>1.578666567802429</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-26.24472213800464</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6.264501752853306</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-33.03638004395655</v>
+      </c>
+      <c r="J141" t="n">
+        <v>43</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>9</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-14.73315152405285</v>
+      </c>
+      <c r="N141" t="n">
+        <v>32.50922389085795</v>
+      </c>
+      <c r="O141" t="n">
+        <v>11.51157061395179</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-20.99765327690616</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>164</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>1.330067873001099</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-20.50508459932217</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2.107182637811049</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-33.86349128678604</v>
+      </c>
+      <c r="J142" t="n">
+        <v>34</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>21</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-18.97560887294892</v>
+      </c>
+      <c r="N142" t="n">
+        <v>22.61226723713322</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.529475726373253</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-21.08279151075997</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>210</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>1.078755617141724</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-14.11114038300158</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2.888084820043008</v>
+      </c>
+      <c r="H143" t="n">
+        <v>14</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-18.04186872386871</v>
+      </c>
+      <c r="J143" t="n">
+        <v>29</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>11</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-4.873681355974138</v>
+      </c>
+      <c r="N143" t="n">
+        <v>16.99922520304458</v>
+      </c>
+      <c r="O143" t="n">
+        <v>9.237459027027441</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-7.761766176017145</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>293</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
         <v>0.942387580871582</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E144" t="n">
         <v>16.38194279295462</v>
       </c>
-      <c r="F141" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
         <v>17.07331757673892</v>
       </c>
-      <c r="H141" t="n">
+      <c r="H144" t="n">
         <v>50</v>
       </c>
-      <c r="I141" t="n">
+      <c r="I144" t="n">
         <v>-2.407002080033716</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="n">
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
         <v>37</v>
       </c>
-      <c r="M141" t="n">
+      <c r="M144" t="n">
         <v>2.479349349551959</v>
       </c>
-      <c r="N141" t="n">
+      <c r="N144" t="n">
         <v>0.6913747837843047</v>
       </c>
-      <c r="O141" t="n">
+      <c r="O144" t="n">
         <v>-13.90259344340266</v>
       </c>
-      <c r="P141" t="n">
+      <c r="P144" t="n">
         <v>-14.59396822718696</v>
       </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>320</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>1.048169016838074</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.899164293385462</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6.454066728290435</v>
+      </c>
+      <c r="H145" t="n">
+        <v>46</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-8.669344345067152</v>
+      </c>
+      <c r="J145" t="n">
+        <v>10</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>10</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-7.862887977600426</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2.554902434904973</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-11.76205227098589</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-14.31695470589086</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>342</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>1.042473316192627</v>
+      </c>
+      <c r="E146" t="n">
+        <v>14.26473716108818</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>17.7392664629136</v>
+      </c>
+      <c r="H146" t="n">
+        <v>40</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-3.749961429922436</v>
+      </c>
+      <c r="J146" t="n">
+        <v>14</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>14</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-3.124941394412743</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3.474529301825424</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-17.38967855550092</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-20.86420785732635</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>375</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>1.138134956359863</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-13.93833358052188</v>
+      </c>
+      <c r="F147" t="b">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>7.843136589218426</v>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-19.91776097591305</v>
+      </c>
+      <c r="J147" t="n">
+        <v>45</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>27</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-3.484164431495675</v>
+      </c>
+      <c r="N147" t="n">
+        <v>21.7814701697403</v>
+      </c>
+      <c r="O147" t="n">
+        <v>10.4541691490262</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-11.3273010207141</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>439</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>1.007760882377624</v>
+      </c>
+      <c r="E148" t="n">
+        <v>48.37994816714225</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>59.99225656722066</v>
+      </c>
+      <c r="H148" t="n">
+        <v>50</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-12.18273228787232</v>
+      </c>
+      <c r="J148" t="n">
+        <v>17</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>5</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-3.80706768897113</v>
+      </c>
+      <c r="N148" t="n">
+        <v>11.6123084000784</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-52.18701585611338</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-63.79932425619179</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>469</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>1.168814182281494</v>
+      </c>
+      <c r="E149" t="n">
+        <v>33.16566585658099</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>40.35608542681483</v>
+      </c>
+      <c r="H149" t="n">
+        <v>50</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-3.504046175316149</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
+        <v>7.190419570233836</v>
+      </c>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>519</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>1.573268055915832</v>
+      </c>
+      <c r="E150" t="n">
+        <v>-2.201124164985706</v>
+      </c>
+      <c r="F150" t="b">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>6.919832791735413</v>
+      </c>
+      <c r="H150" t="n">
+        <v>28</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-20.58014049770663</v>
+      </c>
+      <c r="J150" t="n">
+        <v>33</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>10</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-5.769231497805357</v>
+      </c>
+      <c r="N150" t="n">
+        <v>9.120956956721118</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-3.568107332819652</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-12.68906428954077</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>547</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>1.661368489265442</v>
+      </c>
+      <c r="E151" t="n">
+        <v>-30.53643977940338</v>
+      </c>
+      <c r="F151" t="b">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.249998758236613</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-34.13326035083565</v>
+      </c>
+      <c r="J151" t="n">
+        <v>43</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>20</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-16.00243933783128</v>
+      </c>
+      <c r="N151" t="n">
+        <v>31.78643853763999</v>
+      </c>
+      <c r="O151" t="n">
+        <v>14.5340004415721</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-17.25243809606789</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>603</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>1.225006699562073</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.372747698762399</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>13.10972565410677</v>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-6.597464325941156</v>
+      </c>
+      <c r="J152" t="n">
+        <v>36</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>12</v>
+      </c>
+      <c r="M152" t="n">
+        <v>5.474994844834631</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5.736977955344367</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-1.897752853927768</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-7.634730809272135</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>655</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>1.315323352813721</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.694615747418915</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7.120744556724774</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-17.13326139917204</v>
+      </c>
+      <c r="J153" t="n">
+        <v>22</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>8</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-9.597541430225077</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3.426128809305859</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-13.29215717764399</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-16.71828598694985</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>689</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>1.243842959403992</v>
+      </c>
+      <c r="E154" t="n">
+        <v>28.49886300807037</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>30.38855031480142</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-7.299353468391121</v>
+      </c>
+      <c r="J154" t="n">
+        <v>5</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>5</v>
+      </c>
+      <c r="M154" t="n">
+        <v>-4.774426877383229</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.889687306731044</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-33.2732898854536</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-35.16297719218465</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>706</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>1.350459814071655</v>
+      </c>
+      <c r="E155" t="n">
+        <v>32.13331040586387</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>36.12633565576608</v>
+      </c>
+      <c r="H155" t="n">
+        <v>49</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-10.63123028301576</v>
+      </c>
+      <c r="J155" t="n">
+        <v>9</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>8</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-3.98670501015229</v>
+      </c>
+      <c r="N155" t="n">
+        <v>3.993025249902203</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-36.12001541601617</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-40.11304066591837</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>732</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>1.518408179283142</v>
+      </c>
+      <c r="E156" t="n">
+        <v>46.00485768957406</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>46.67460408396606</v>
+      </c>
+      <c r="H156" t="n">
+        <v>52</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-1.238388904545594</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>0.6697463943919999</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>755</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>1.725580453872681</v>
+      </c>
+      <c r="E157" t="n">
+        <v>54.35915369288394</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>54.96688039738765</v>
+      </c>
+      <c r="H157" t="n">
+        <v>51</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.5681794944791393</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>0.6077267045037118</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>826</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>2.706425428390503</v>
+      </c>
+      <c r="E158" t="n">
+        <v>11.70033645563244</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>20.95615035161226</v>
+      </c>
+      <c r="H158" t="n">
+        <v>49</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-2.58961002515537</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
+        <v>9.255813895979818</v>
+      </c>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>839</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>2.830425500869751</v>
+      </c>
+      <c r="E159" t="n">
+        <v>18.87535573148332</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>21.69136098439541</v>
+      </c>
+      <c r="H159" t="n">
+        <v>52</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-4.571439642206885</v>
+      </c>
+      <c r="J159" t="n">
+        <v>6</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>42</v>
+      </c>
+      <c r="M159" t="n">
+        <v>8.214820751764812</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2.816005252912088</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-10.66053497971851</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-13.4765402326306</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>893</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>3.455770492553711</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-8.232575936117239</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>10.95550507824046</v>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-12.38810135578667</v>
+      </c>
+      <c r="J160" t="n">
+        <v>45</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>7</v>
+      </c>
+      <c r="M160" t="n">
+        <v>4.942284521798272</v>
+      </c>
+      <c r="N160" t="n">
+        <v>19.1880810143577</v>
+      </c>
+      <c r="O160" t="n">
+        <v>13.17486045791551</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-6.01322055644219</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>973</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>3.576025485992432</v>
+      </c>
+      <c r="E161" t="n">
+        <v>-24.83959197644527</v>
+      </c>
+      <c r="F161" t="b">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.034481738041789</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-26.67275360002674</v>
+      </c>
+      <c r="J161" t="n">
+        <v>39</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>15</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-13.06272484091875</v>
+      </c>
+      <c r="N161" t="n">
+        <v>25.87407371448706</v>
+      </c>
+      <c r="O161" t="n">
+        <v>11.77686713552652</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-14.09720657896054</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>2.413536071777344</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15.21866218108594</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>25.03477926561798</v>
+      </c>
+      <c r="H162" t="n">
+        <v>49</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-4.037270598939308</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>27</v>
+      </c>
+      <c r="M162" t="n">
+        <v>14.56231211296454</v>
+      </c>
+      <c r="N162" t="n">
+        <v>9.816117084532047</v>
+      </c>
+      <c r="O162" t="n">
+        <v>-0.6563500681213981</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-10.47246715265345</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1112</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>2.458508729934692</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-2.182872655837772</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>22.74756087292938</v>
+      </c>
+      <c r="H163" t="n">
+        <v>47</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-7.5994657889655</v>
+      </c>
+      <c r="J163" t="n">
+        <v>51</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>25</v>
+      </c>
+      <c r="M163" t="n">
+        <v>12.46666297507897</v>
+      </c>
+      <c r="N163" t="n">
+        <v>24.93043352876716</v>
+      </c>
+      <c r="O163" t="n">
+        <v>14.64953563091674</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-10.28089789785041</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1155</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>2.987122535705566</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-15.98536184341802</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.025634662491898</v>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-28.37213164072008</v>
+      </c>
+      <c r="J164" t="n">
+        <v>41</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>10</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-20.27972926593715</v>
+      </c>
+      <c r="N164" t="n">
+        <v>17.01099650590992</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-4.294367422519136</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-21.30536392842905</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>2.632009744644165</v>
+      </c>
+      <c r="E165" t="n">
+        <v>18.76736782786895</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>18.76736782786895</v>
+      </c>
+      <c r="H165" t="n">
+        <v>52</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-18.70804422516176</v>
+      </c>
+      <c r="J165" t="n">
+        <v>17</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>6</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-7.440470987274818</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-26.20783881514376</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-26.20783881514376</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1208</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>2.57396936416626</v>
+      </c>
+      <c r="E166" t="n">
+        <v>33.78183236214117</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>40.97791401326359</v>
+      </c>
+      <c r="H166" t="n">
+        <v>52</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-4.062496288635739</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
+        <v>7.196081651122412</v>
+      </c>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1307</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>3.553262233734131</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.9434318012821451</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12.42051014687303</v>
+      </c>
+      <c r="H167" t="n">
+        <v>27</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-3.434213717673222</v>
+      </c>
+      <c r="J167" t="n">
+        <v>50</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>35</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.8255665697003823</v>
+      </c>
+      <c r="N167" t="n">
+        <v>11.47707834559089</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-0.1178652315817628</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-11.59494357717265</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1312</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>3.605902910232544</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.7385620962569069</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>10.77934235790268</v>
+      </c>
+      <c r="H168" t="n">
+        <v>22</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-4.843926747405085</v>
+      </c>
+      <c r="J168" t="n">
+        <v>45</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>30</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-0.6463327478057924</v>
+      </c>
+      <c r="N168" t="n">
+        <v>10.04078026164577</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-1.384894844062699</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-11.42567510570847</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>3.887117385864258</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-16.35864554367608</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2.764983237879027</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-18.28697765345701</v>
+      </c>
+      <c r="J169" t="n">
+        <v>51</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>11</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-7.834098555964296</v>
+      </c>
+      <c r="N169" t="n">
+        <v>19.12362878155511</v>
+      </c>
+      <c r="O169" t="n">
+        <v>8.524546987711787</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-10.59908179384332</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>3.795750141143799</v>
+      </c>
+      <c r="E170" t="n">
+        <v>30.67245876864652</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>31.46280934114631</v>
+      </c>
+      <c r="H170" t="n">
+        <v>51</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-4.545453474235226</v>
+      </c>
+      <c r="J170" t="n">
+        <v>7</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>0.7903505724997864</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7512,40 +8914,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>64.51612903225806</v>
       </c>
       <c r="D4" t="n">
-        <v>30.16945034965448</v>
+        <v>9.279809001411067</v>
       </c>
       <c r="E4" t="n">
-        <v>30.16945034965448</v>
+        <v>7.372747698762399</v>
       </c>
       <c r="F4" t="n">
-        <v>19.49848017800648</v>
+        <v>23.79600028888522</v>
       </c>
       <c r="G4" t="n">
-        <v>36.81110602782978</v>
+        <v>20.46586661715524</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.160952518216763</v>
+        <v>-12.43808560605134</v>
       </c>
       <c r="I4" t="n">
-        <v>6.641655678175294</v>
+        <v>11.18605761574417</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>80.64516129032258</v>
       </c>
       <c r="K4" t="n">
-        <v>37</v>
+        <v>17.68</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M4" t="n">
-        <v>-8.924494309992507</v>
+        <v>-5.410736966382892</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
